--- a/Question_Set2/Programming skills/Coding Data Structures - Arrays.xlsx
+++ b/Question_Set2/Programming skills/Coding Data Structures - Arrays.xlsx
@@ -16,23 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You are given an array of integers, arr and its size n. You are also given an empty result array, rarr. Write the function arrayProducts that takes n and arr as inputs. It fills in the result array so that the element at every position is the product of the elements at all the other positions.Example 1Input:n=4arr= 1 2 3 4rarr= emptyOutput:rarr = 24 12 8 6Explanation: The first element in the result array = product of the remaining elements = 2 x 3 x 4 = 24The second element = 1 x 3 x 4 = 12The third element = 1 x 2 x 4 = 8The fourth element = 1 x 2 x 3 = 6Example 2Input:n=5arr= -1 1 3 5 7rarr= emptyOutput:rarr = 105 -105 -35 -21 -15Explanation: The elements will be [1x3x5x7, -1x3x5x7, -1x1x5x7, -1x1x3x7, -1x1x3x5] = [105, -105, -35, -21, -15]', 'ques_type': None, 'options': [], 'score': None}]</t>
+    <t>questions = [
+    {
+        "title": "You are given an array of integers, arr and its size n. You are also given an empty result array, rarr. Write the function arrayProducts that takes n and arr as inputs. It fills in the result array so that the element at every position is the product of the elements at all the other positions.Example 1Input:n=4arr= 1 2 3 4rarr= emptyOutput:rarr = 24 12 8 6Explanation: The first element in the result array = product of the remaining elements = 2 x 3 x 4 = 24The second element = 1 x 3 x 4 = 12The third element = 1 x 2 x 4 = 8The fourth element = 1 x 2 x 3 = 6Example 2Input:n=5arr= -1 1 3 5 7rarr= emptyOutput:rarr = 105 -105 -35 -21 -15Explanation: The elements will be [1x3x5x7, -1x3x5x7, -1x1x5x7, -1x1x3x7, -1x1x3x5] = [105, -105, -35, -21, -15]",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +55,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
